--- a/Altium/VoIP/Project Outputs for VoIP/VoIP.xlsx
+++ b/Altium/VoIP/Project Outputs for VoIP/VoIP.xlsx
@@ -3,11 +3,6 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will\Documents\GitHub\EE52\Altium\VoIP\Project Outputs for VoIP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="14350"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
   <si>
     <t>Comment</t>
   </si>
@@ -44,6 +39,9 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -59,6 +57,9 @@
     <t>Cap Semi</t>
   </si>
   <si>
+    <t>0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 1nF, 31pF, 0.1uF, 0.1uF, 10nF, 31pF, 16pF, 1nF, 16pF, 10nF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 1uF, 1uF, 1uF, 1uF, 0.1uF, 1uF, 1uF, 1uF, 1uF, 1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 31pF, 31pF, 0.22uF, 0.1uF, 0.22uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 1uF, 0.1uF</t>
+  </si>
+  <si>
     <t>Tant</t>
   </si>
   <si>
@@ -68,6 +69,9 @@
     <t>C1206</t>
   </si>
   <si>
+    <t>10uF</t>
+  </si>
+  <si>
     <t>C71, C72, C73, C74, C75, C76, C77, C78</t>
   </si>
   <si>
@@ -188,10 +192,13 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, R20, R21, R22, R23, R24, R25, R26, R27, R28, R29, R30, R31, R32, R33, R34, R35, R36, R37, R38, R39, R40, R41, R42, R43, R44, R45, R46, R47, R48, R49, R50, R51, R52, R53, R54, R55, R56</t>
+    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, R20, R21, R22, R23, R24, R25, R26, R27, R28, R29, R30, R31, R32, R33, R34, R35, R36, R37, R38, R39, R40, R41, R42, R43, R44, R45, R46, R47, R48, R49, R50, R51, R52, R53, R54, R55, R56, R57</t>
   </si>
   <si>
     <t>J1-0603</t>
+  </si>
+  <si>
+    <t>909, 1000, 12K, 10K, 10K, 10K, 10K, 10K, 10K, 10K, 10K, 10K, 10K, 10K, 10K, 1K, 1K, 2.2K, 2.2K, 2.2K, 220, 220, 1.5K, 2K, 510K, 34K, 2.2K, 2.2K, 2.2K, 2.2K, 510K, 34K, 2K, 2.2K, 2.2K, 2.2K, 2.2K, 2.2K, 2.2K, 4.87K, 49.9, 49.9, 49.9, 49.9, 10K, 10K, 120, 52.3, 120, 365, 120, 196, 120, 169, 0, 0, 0</t>
   </si>
   <si>
     <t>LM1086</t>
@@ -782,16 +789,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="9.1796875" customWidth="1"/>
+    <col min="1" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,645 +818,744 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F15" s="3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F16" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F19" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="G31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="F33" s="3">
         <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Altium/VoIP/Project Outputs for VoIP/VoIP.xlsx
+++ b/Altium/VoIP/Project Outputs for VoIP/VoIP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="130">
   <si>
     <t>Comment</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Capacitor (Semiconductor SIM Model)</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, C31, C32, C33, C34, C35, C36, C37, C38, C39, C40, C41, C42, C43, C44, C45, C46, C47, C48, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C62, C63, C64, C65, C66, C67, C68, C69, C70, C79, C80</t>
+    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, C31, C32, C33, C34, C35, C36, C37, C38, C39, C40, C41, C42, C43, C44, C45, C46, C47, C48, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C62, C63, C64, C65, C66, C67, C68, C69, C70, C79, C80, C81, C82, C83</t>
   </si>
   <si>
     <t>1608[0603]</t>
@@ -57,7 +57,7 @@
     <t>Cap Semi</t>
   </si>
   <si>
-    <t>0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 1nF, 31pF, 0.1uF, 0.1uF, 10nF, 31pF, 16pF, 1nF, 16pF, 10nF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 1uF, 1uF, 1uF, 1uF, 0.1uF, 1uF, 1uF, 1uF, 1uF, 1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 31pF, 31pF, 0.22uF, 0.1uF, 0.22uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 1uF, 0.1uF</t>
+    <t>0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 1nF, 30pF, 0.1uF, 0.1uF, 10nF, 30pF, 16pF, 1nF, 16pF, 10nF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 1uF, 1uF, 1uF, 1uF, 0.1uF, 1uF, 1uF, 1uF, 1uF, 1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 30pF, 30pF, 0.22uF, 0.1uF, 0.22uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 1uF, 0.1uF, 0.1uF, 0.1uF, 0.01uF</t>
   </si>
   <si>
     <t>Tant</t>
@@ -243,7 +243,7 @@
     <t>U2, U4, U8, U18, U19, U21</t>
   </si>
   <si>
-    <t>SSOP48</t>
+    <t>TSSOP48</t>
   </si>
   <si>
     <t>MAX705</t>
@@ -303,7 +303,7 @@
     <t>TI-CD40109B-16</t>
   </si>
   <si>
-    <t>U9, U10, U11, U12, U14</t>
+    <t>U9, U11</t>
   </si>
   <si>
     <t>TI-PW16_M</t>
@@ -318,7 +318,7 @@
     <t>U13</t>
   </si>
   <si>
-    <t>SOL-20</t>
+    <t>DIP20</t>
   </si>
   <si>
     <t>24AA32</t>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>U15</t>
+  </si>
+  <si>
+    <t>DIPS8</t>
   </si>
   <si>
     <t>DP83848</t>
@@ -839,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1345,7 +1348,7 @@
         <v>93</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>7</v>
@@ -1385,7 +1388,7 @@
         <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>100</v>
@@ -1399,19 +1402,19 @@
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -1422,19 +1425,19 @@
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -1445,19 +1448,19 @@
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -1468,19 +1471,19 @@
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -1491,19 +1494,19 @@
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -1514,19 +1517,19 @@
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -1537,19 +1540,19 @@
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>

--- a/Altium/VoIP/Project Outputs for VoIP/VoIP.xlsx
+++ b/Altium/VoIP/Project Outputs for VoIP/VoIP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="188">
   <si>
     <t>Comment</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Capacitor (Semiconductor SIM Model)</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27, C28, C29, C30, C31, C32, C33, C34, C35, C36, C37, C38, C39, C40, C41, C42, C43, C44, C45, C46, C47, C48, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C62, C63, C64, C65, C66, C67, C68, C69, C70, C79, C80, C81, C82, C83</t>
+    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C24, C25, C32, C33, C34, C35, C36, C37, C38, C43, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C63, C65, C66, C67, C68, C69, C70, C80, C81, C82, C85, C86, C87, C89, C90</t>
   </si>
   <si>
     <t>1608[0603]</t>
@@ -57,7 +57,37 @@
     <t>Cap Semi</t>
   </si>
   <si>
-    <t>0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 1nF, 30pF, 0.1uF, 0.1uF, 10nF, 30pF, 16pF, 1nF, 16pF, 10nF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 1uF, 1uF, 1uF, 1uF, 0.1uF, 1uF, 1uF, 1uF, 1uF, 1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 30pF, 30pF, 0.22uF, 0.1uF, 0.22uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 0.1uF, 1uF, 0.1uF, 0.1uF, 0.1uF, 0.01uF</t>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>C22, C29</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>C23, C27, C59, C60</t>
+  </si>
+  <si>
+    <t>30pF</t>
+  </si>
+  <si>
+    <t>C26, C31</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C28, C30</t>
+  </si>
+  <si>
+    <t>16pF</t>
+  </si>
+  <si>
+    <t>C39, C40, C41, C42, C44, C45, C46, C47, C48, C79, C91</t>
+  </si>
+  <si>
+    <t>1uF</t>
   </si>
   <si>
     <t>Tant</t>
@@ -72,9 +102,21 @@
     <t>10uF</t>
   </si>
   <si>
+    <t>C62, C64</t>
+  </si>
+  <si>
+    <t>0.22uF</t>
+  </si>
+  <si>
     <t>C71, C72, C73, C74, C75, C76, C77, C78</t>
   </si>
   <si>
+    <t>C83, C84, C88</t>
+  </si>
+  <si>
+    <t>0.01uF</t>
+  </si>
+  <si>
     <t>Newhaven Display NHD-C12832A1Z-FSW-FBW-3V3</t>
   </si>
   <si>
@@ -174,6 +216,30 @@
     <t>HDR1X4</t>
   </si>
   <si>
+    <t>Header 8X2</t>
+  </si>
+  <si>
+    <t>Header, 8-Pin, Dual row</t>
+  </si>
+  <si>
+    <t>P4, P5, P6, P7</t>
+  </si>
+  <si>
+    <t>HDR2X8</t>
+  </si>
+  <si>
+    <t>Header 4X2</t>
+  </si>
+  <si>
+    <t>Header, 4-Pin, Dual row</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>HDR2X4</t>
+  </si>
+  <si>
     <t>JFET-P</t>
   </si>
   <si>
@@ -192,13 +258,121 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, R20, R21, R22, R23, R24, R25, R26, R27, R28, R29, R30, R31, R32, R33, R34, R35, R36, R37, R38, R39, R40, R41, R42, R43, R44, R45, R46, R47, R48, R49, R50, R51, R52, R53, R54, R55, R56, R57</t>
+    <t>R1</t>
   </si>
   <si>
     <t>J1-0603</t>
   </si>
   <si>
-    <t>909, 1000, 12K, 10K, 10K, 10K, 10K, 10K, 10K, 10K, 10K, 10K, 10K, 10K, 10K, 1K, 1K, 2.2K, 2.2K, 2.2K, 220, 220, 1.5K, 2K, 510K, 34K, 2.2K, 2.2K, 2.2K, 2.2K, 510K, 34K, 2K, 2.2K, 2.2K, 2.2K, 2.2K, 2.2K, 2.2K, 4.87K, 49.9, 49.9, 49.9, 49.9, 10K, 10K, 120, 52.3, 120, 365, 120, 196, 120, 169, 0, 0, 0</t>
+    <t>909</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>R4, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14, R15, R45, R46</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R16, R17</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>R18, R19, R20, R27, R28, R29, R30, R34, R35, R36, R37, R38, R39</t>
+  </si>
+  <si>
+    <t>2.2K</t>
+  </si>
+  <si>
+    <t>R21, R22</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>1.5K</t>
+  </si>
+  <si>
+    <t>R24, R33</t>
+  </si>
+  <si>
+    <t>2K</t>
+  </si>
+  <si>
+    <t>R25, R31</t>
+  </si>
+  <si>
+    <t>510K</t>
+  </si>
+  <si>
+    <t>R26, R32</t>
+  </si>
+  <si>
+    <t>34K</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>4.87K</t>
+  </si>
+  <si>
+    <t>R41, R42, R43, R44</t>
+  </si>
+  <si>
+    <t>49.9</t>
+  </si>
+  <si>
+    <t>R47, R49, R51, R53</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>52.3</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>R55, R56, R57</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>LM1086</t>
@@ -792,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -842,7 +1016,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -850,25 +1024,25 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.4">
@@ -879,16 +1053,16 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>16</v>
@@ -896,180 +1070,180 @@
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1080,19 +1254,19 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -1103,19 +1277,19 @@
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1126,45 +1300,45 @@
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F15" s="3">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F16" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>7</v>
@@ -1172,19 +1346,19 @@
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -1195,19 +1369,19 @@
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -1218,22 +1392,22 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -1241,19 +1415,19 @@
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1264,22 +1438,22 @@
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>7</v>
@@ -1287,19 +1461,19 @@
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -1310,19 +1484,19 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -1333,231 +1507,852 @@
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="F28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="F30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="F32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="3">
+        <v>4</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="E45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F46" s="3">
+        <v>6</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Altium/VoIP/Project Outputs for VoIP/VoIP.xlsx
+++ b/Altium/VoIP/Project Outputs for VoIP/VoIP.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will\Documents\GitHub\EE52\Altium\VoIP\Project Outputs for VoIP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="14350"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="210">
   <si>
     <t>Comment</t>
   </si>
@@ -48,7 +53,7 @@
     <t>Capacitor (Semiconductor SIM Model)</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C24, C25, C32, C33, C34, C35, C36, C37, C38, C43, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C63, C65, C66, C67, C68, C69, C70, C80, C81, C82, C85, C86, C87, C89, C90</t>
+    <t>C1, C2, C3, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C24, C25, C32, C33, C34, C35, C36, C37, C38, C43, C49, C50, C51, C52, C53, C54, C55, C56, C57, C58, C63, C65, C66, C67, C68, C69, C70, C80, C81, C82, C85, C86, C87, C89, C90, C92, C94, C95, C96, C97, C98, C99, C100, C101, C102, C103, C104, C105, C106, C107</t>
   </si>
   <si>
     <t>1608[0603]</t>
@@ -84,7 +89,7 @@
     <t>16pF</t>
   </si>
   <si>
-    <t>C39, C40, C41, C42, C44, C45, C46, C47, C48, C79, C91</t>
+    <t>C39, C40, C41, C42, C44, C45, C46, C47, C48, C75, C77, C79, C91</t>
   </si>
   <si>
     <t>1uF</t>
@@ -108,10 +113,10 @@
     <t>0.22uF</t>
   </si>
   <si>
-    <t>C71, C72, C73, C74, C75, C76, C77, C78</t>
-  </si>
-  <si>
-    <t>C83, C84, C88</t>
+    <t>C71, C72, C73, C74, C76, C78</t>
+  </si>
+  <si>
+    <t>C83, C84, C88, C93</t>
   </si>
   <si>
     <t>0.01uF</t>
@@ -162,6 +167,9 @@
     <t>J3</t>
   </si>
   <si>
+    <t>Power Connector</t>
+  </si>
+  <si>
     <t>EJ508A</t>
   </si>
   <si>
@@ -192,6 +200,27 @@
     <t>SIP8</t>
   </si>
   <si>
+    <t>742792116</t>
+  </si>
+  <si>
+    <t>SMD EMI Suppression Ferrite Bead WE-CBF, Z = 500 Ohm</t>
+  </si>
+  <si>
+    <t>L1, L2, L3, L4</t>
+  </si>
+  <si>
+    <t>SMD-1206</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>L5, L6, L7</t>
+  </si>
+  <si>
+    <t>LTST-C191KFKT</t>
+  </si>
+  <si>
     <t>Header 10X2</t>
   </si>
   <si>
@@ -240,16 +269,40 @@
     <t>HDR2X4</t>
   </si>
   <si>
-    <t>JFET-P</t>
-  </si>
-  <si>
-    <t>P-Channel JFET</t>
+    <t>Header 6</t>
+  </si>
+  <si>
+    <t>Header, 6-Pin</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>HDR1X6</t>
+  </si>
+  <si>
+    <t>MMBFJ175LT1</t>
+  </si>
+  <si>
+    <t>JFET Chopper, P-Channel - Depletion, 3-Pin SOT-23, Tape and Reel</t>
   </si>
   <si>
     <t>Q1</t>
   </si>
   <si>
-    <t>TO-18A</t>
+    <t>ONSC-SOT-23-3-318-08_V</t>
+  </si>
+  <si>
+    <t>DMG3420U</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>DMG3420</t>
   </si>
   <si>
     <t>Res3</t>
@@ -285,16 +338,10 @@
     <t>10K</t>
   </si>
   <si>
-    <t>R16, R17</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>R18, R19, R20, R27, R28, R29, R30, R34, R35, R36, R37, R38, R39</t>
-  </si>
-  <si>
-    <t>2.2K</t>
+    <t>R16, R17, R18, R19, R20, R27, R28, R29, R30, R34, R35, R36, R37, R38, R39, R59, R63, R64</t>
+  </si>
+  <si>
+    <t>2.2k</t>
   </si>
   <si>
     <t>R21, R22</t>
@@ -375,25 +422,64 @@
     <t>0</t>
   </si>
   <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>MCR100JZHJ2R2</t>
+  </si>
+  <si>
+    <t>R58, R60, R61, R62</t>
+  </si>
+  <si>
+    <t>RESC6332</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>R65, R67, R68</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R66</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>R69</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R70</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>LM1086-ADJ</t>
+  </si>
+  <si>
+    <t>1.5A Low Dropout Positive Regulator</t>
+  </si>
+  <si>
+    <t>REG_1V8, REG_3V, REG_3V3, REG_5V</t>
+  </si>
+  <si>
+    <t>TO-220V</t>
+  </si>
+  <si>
     <t>LM1086</t>
   </si>
   <si>
-    <t>1.5A Low Dropout Positive Regulator</t>
-  </si>
-  <si>
-    <t>REG_1V8, REG_3V, REG_3V3, REG_5V</t>
-  </si>
-  <si>
-    <t>TO-220</t>
-  </si>
-  <si>
-    <t>SHADOWSW</t>
-  </si>
-  <si>
-    <t>Shadow Pushbutton Switch</t>
-  </si>
-  <si>
-    <t>SW_HangUp, SW_RESET</t>
+    <t>KS01Q01</t>
+  </si>
+  <si>
+    <t>SW_HANGUP, SW_RESET</t>
   </si>
   <si>
     <t>AT91RM9200</t>
@@ -429,7 +515,7 @@
     <t>U3</t>
   </si>
   <si>
-    <t>DIP8</t>
+    <t>DIPS8</t>
   </si>
   <si>
     <t>ISPLSI1016E</t>
@@ -492,7 +578,7 @@
     <t>U13</t>
   </si>
   <si>
-    <t>DIP20</t>
+    <t>DIPS20</t>
   </si>
   <si>
     <t>24AA32</t>
@@ -504,9 +590,6 @@
     <t>U15</t>
   </si>
   <si>
-    <t>DIPS8</t>
-  </si>
-  <si>
     <t>DP83848</t>
   </si>
   <si>
@@ -541,18 +624,6 @@
   </si>
   <si>
     <t>SIMM30</t>
-  </si>
-  <si>
-    <t>Q?</t>
-  </si>
-  <si>
-    <t>U22</t>
-  </si>
-  <si>
-    <t>SOT23</t>
-  </si>
-  <si>
-    <t>DMG3420</t>
   </si>
   <si>
     <t>20 MHz</t>
@@ -604,7 +675,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +685,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,13 +728,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,13 +1051,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="15.54296875" customWidth="1"/>
+    <col min="1" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" customWidth="1"/>
+    <col min="4" max="6" width="15.54296875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1016,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -1131,7 +1220,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>22</v>
@@ -1200,7 +1289,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>26</v>
@@ -1223,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>31</v>
@@ -1253,71 +1342,71 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1326,16 +1415,16 @@
         <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1345,77 +1434,77 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="5">
         <v>2</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="D19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>62</v>
@@ -1427,723 +1516,723 @@
         <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="5">
         <v>4</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>83</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F27" s="3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F29" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F32" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F33" s="3">
         <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F35" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F37" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F39" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F40" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F42" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F43" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="F44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="F45" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="F46" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="F47" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F51" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>7</v>
@@ -2151,213 +2240,374 @@
     </row>
     <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A53" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D53" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="E53" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A54" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="B54" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
+      <c r="C54" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D54" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="E54" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" s="5">
+        <v>6</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A55" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="B55" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A54" s="2" t="s">
+      <c r="C55" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="D55" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="E55" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A56" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
+      <c r="C56" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="D56" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="E56" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A57" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="B57" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="D57" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="E57" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A58" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
+      <c r="B58" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E58" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A58" s="2" t="s">
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A59" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D59" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E59" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A60" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="D60" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E60" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A61" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A60" s="2" t="s">
+      <c r="B61" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="D61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A62" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A64" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A65" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A66" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+      <c r="A67" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Altium/VoIP/Project Outputs for VoIP/VoIP.xlsx
+++ b/Altium/VoIP/Project Outputs for VoIP/VoIP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will\Documents\GitHub\EE52\Altium\VoIP\Project Outputs for VoIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will\GitReps\EE52\Altium\VoIP\Project Outputs for VoIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="14350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28776" windowHeight="14352"/>
   </bookViews>
   <sheets>
     <sheet name="VoIP" sheetId="1" r:id="rId1"/>
@@ -1331,59 +1331,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1627,13 +1574,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1646,6 +1586,66 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1662,16 +1662,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G230" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G230" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G230"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Comment" dataDxfId="8"/>
-    <tableColumn id="2" name="Description" dataDxfId="7"/>
-    <tableColumn id="3" name="Designator" dataDxfId="6"/>
-    <tableColumn id="4" name="Footprint" dataDxfId="5"/>
-    <tableColumn id="5" name="LibRef" dataDxfId="4"/>
-    <tableColumn id="6" name="Quantity" dataDxfId="3"/>
-    <tableColumn id="7" name="Value" dataDxfId="2"/>
+    <tableColumn id="1" name="Comment" dataDxfId="6"/>
+    <tableColumn id="2" name="Description" dataDxfId="5"/>
+    <tableColumn id="3" name="Designator" dataDxfId="4"/>
+    <tableColumn id="4" name="Footprint" dataDxfId="3"/>
+    <tableColumn id="5" name="LibRef" dataDxfId="2"/>
+    <tableColumn id="6" name="Quantity" dataDxfId="1"/>
+    <tableColumn id="7" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1979,17 +1979,17 @@
   </sheetPr>
   <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="15.54296875" customWidth="1"/>
+    <col min="1" max="6" width="15.5546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>7</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>7</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>7</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>7</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>7</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>7</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>7</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>77</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>7</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>7</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>7</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>7</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>7</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>7</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>7</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>7</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>7</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>7</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>7</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>7</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>7</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>7</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>7</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>7</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>7</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>7</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>7</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>7</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>7</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>7</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>7</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>7</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>7</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>7</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>7</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>7</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>7</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>7</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>7</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>7</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>7</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>7</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>7</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>7</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>7</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>7</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>7</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>7</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>129</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>133</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>137</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>142</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>144</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>147</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>151</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>155</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>155</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>155</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>155</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>162</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>162</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>162</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>167</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>171</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>147</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>176</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>176</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>176</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>176</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>183</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>187</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>191</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>195</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>199</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>199</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>199</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>199</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>199</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>199</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>199</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>199</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>199</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>199</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>199</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>199</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>199</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>199</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>199</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>199</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>199</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>199</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>199</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>199</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>199</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>199</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>199</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>199</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>199</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>199</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>199</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>199</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>199</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>199</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>199</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>199</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>199</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>199</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>199</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>199</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>199</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>199</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>199</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>199</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>199</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>199</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>199</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>199</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>199</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>199</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>199</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>199</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>199</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>199</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>199</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>199</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>199</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>199</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>199</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>199</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>199</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>278</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>199</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>278</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>278</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>278</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>199</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>199</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>199</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>199</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>199</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>199</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>199</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>199</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>299</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>299</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>299</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>299</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>307</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>307</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>310</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>314</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>318</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>314</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>323</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>327</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>332</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>314</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>338</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>338</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>342</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>346</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>349</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>353</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>314</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>314</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>359</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>314</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>364</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>369</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
         <v>372</v>
       </c>
